--- a/Projects/BIMY/Data/Template_Jul_2018.xlsx
+++ b/Projects/BIMY/Data/Template_Jul_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deeksha\Documents\final templates\Brand block recal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Deeksha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A948D4E0-B793-4BEF-A916-4C7AC5C71488}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7616DB4B-2C57-4FA4-A998-27FA726254C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6090" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="7" r:id="rId1"/>
@@ -552,7 +552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="91">
   <si>
     <t>KPI Name</t>
   </si>
@@ -704,18 +704,12 @@
     <t>4048846005328</t>
   </si>
   <si>
-    <t>DULCOLAX TAB 200S (BLISTER PACK) - NEW</t>
-  </si>
-  <si>
     <t>9556991220299</t>
   </si>
   <si>
     <t>Dulcolax</t>
   </si>
   <si>
-    <t>DULCOLAX TABLETS 30's</t>
-  </si>
-  <si>
     <t>9556991220282</t>
   </si>
   <si>
@@ -785,9 +779,6 @@
     <t>RHINATHIOL CHILDREN SYRUP 125ml</t>
   </si>
   <si>
-    <t>Mucosolvan &amp; Rhinathiol</t>
-  </si>
-  <si>
     <t>Primary_Shelftalker_Muco&amp;Rhina</t>
   </si>
   <si>
@@ -828,6 +819,12 @@
   </si>
   <si>
     <t>9556991220077,7610939003137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCOLAX TAB 200S (BLISTER PACK) </t>
+  </si>
+  <si>
+    <t>DULCOLAX TAB 30S (BLISTER PACK)</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,9 +1632,6 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1656,9 +1650,6 @@
     <xf numFmtId="0" fontId="26" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1704,12 +1695,6 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1718,6 +1703,12 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2455,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="D5" s="60" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>52</v>
       </c>
       <c r="E5" s="61" t="s">
         <v>40</v>
@@ -2475,13 +2466,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="61" t="s">
         <v>40</v>
@@ -2495,13 +2486,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="60" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>57</v>
       </c>
       <c r="E7" s="61" t="s">
         <v>41</v>
@@ -2515,13 +2506,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="59">
         <v>7610939003137</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" s="61" t="s">
         <v>41</v>
@@ -2535,13 +2526,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="60" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="60" t="s">
-        <v>61</v>
       </c>
       <c r="E9" s="61" t="s">
         <v>41</v>
@@ -2555,13 +2546,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="60" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="61" t="s">
         <v>39</v>
@@ -2575,13 +2566,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="62">
         <v>9556499172861</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="61" t="s">
         <v>40</v>
@@ -2595,13 +2586,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="62">
         <v>9556499331442</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="61" t="s">
         <v>40</v>
@@ -2615,10 +2606,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="60" t="s">
         <v>42</v>
@@ -2635,10 +2626,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="60" t="s">
         <v>42</v>
@@ -2655,13 +2646,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="62">
         <v>3582910052104</v>
       </c>
       <c r="D15" s="60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="61" t="s">
         <v>43</v>
@@ -2675,13 +2666,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" s="62">
         <v>3582910009405</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>12</v>
@@ -2695,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="62">
         <v>3582910010296</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E17" s="61" t="s">
         <v>12</v>
@@ -2741,10 +2732,10 @@
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="104"/>
+      <c r="G1" s="105"/>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -2944,8 +2935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2991,7 +2982,7 @@
       <c r="A3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="92" t="s">
         <v>47</v>
       </c>
       <c r="C3" s="57" t="s">
@@ -3000,10 +2991,10 @@
       <c r="D3" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="106">
+      <c r="F3" s="102">
         <v>1</v>
       </c>
     </row>
@@ -3011,19 +3002,19 @@
       <c r="A4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="94" t="s">
-        <v>75</v>
+      <c r="B4" s="92" t="s">
+        <v>73</v>
       </c>
       <c r="C4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="107" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="106">
+        <v>87</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="102">
         <v>1</v>
       </c>
     </row>
@@ -3032,16 +3023,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>41</v>
       </c>
       <c r="D5" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="103" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" s="107" t="s">
-        <v>91</v>
       </c>
       <c r="F5" s="71">
         <v>1</v>
@@ -3058,10 +3049,10 @@
         <v>43</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="107" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>84</v>
       </c>
       <c r="F6" s="71">
         <v>1</v>
@@ -3233,7 +3224,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3282,15 +3273,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="78" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="80" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="75">
@@ -3301,14 +3292,14 @@
       <c r="A4" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>81</v>
+      <c r="B4" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>78</v>
       </c>
       <c r="D4" s="76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" s="77" t="s">
         <v>41</v>
@@ -3321,11 +3312,11 @@
       <c r="A5" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>83</v>
+      <c r="B5" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>80</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>42</v>
@@ -3341,19 +3332,19 @@
       <c r="A6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="88" t="s">
+      <c r="B6" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="87">
         <v>1</v>
       </c>
     </row>
@@ -3430,9 +3421,13 @@
       <c r="F26" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" tooltip="Mucosolvan" display="https://services.traxretail.com/trax-one/bimy/products-and-brands/brand/7" xr:uid="{B05E86A3-60BA-478F-9D39-B26333EB58F7}"/>
+    <hyperlink ref="D6" r:id="rId2" tooltip="Essentiale" display="https://services.traxretail.com/trax-one/bimy/products-and-brands/brand/34" xr:uid="{DF69B2A0-E44C-402D-8FB5-64878BC03666}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -3440,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3466,162 +3461,162 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="88" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="98">
+      <c r="F3" s="96">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="95">
+        <v>3582910009405</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="97">
-        <v>3582910009405</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="94" t="s">
+      <c r="C5" s="95">
+        <v>3582910010296</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F5" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="93" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="97">
-        <v>3582910010296</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="98">
+      <c r="B6" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="95">
+        <v>8993237276046</v>
+      </c>
+      <c r="D6" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="93" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B7" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="97">
-        <v>8993237276046</v>
-      </c>
-      <c r="D6" s="94" t="s">
+      <c r="C7" s="95">
+        <v>7891058013271</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E7" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F7" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="93" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="97">
-        <v>7891058013271</v>
-      </c>
-      <c r="D7" s="94" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="93" t="s">
+      <c r="B8" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="96">
         <v>2</v>
       </c>
-      <c r="B8" s="95" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="94">
+        <v>7610939003137</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="94" t="s">
+      <c r="E9" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="96">
-        <v>7610939003137</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="98">
+      <c r="F9" s="96">
         <v>1</v>
       </c>
     </row>
@@ -3629,19 +3624,19 @@
       <c r="A10" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="102">
+      <c r="E10" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="100">
         <v>1</v>
       </c>
     </row>
